--- a/itens_conf/Hlayisa_Cronograma.xlsx
+++ b/itens_conf/Hlayisa_Cronograma.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machanguele\Desktop\Final_ES\Entregas 3 e 4_Hlayisa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\projecto\itens_conf\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98395E0-6765-4D87-A624-CD15F1E5B9A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11655" windowHeight="9465"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{47684D57-1D24-4352-A365-07A908177A8C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,81 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Actividade</t>
-  </si>
-  <si>
-    <t>sem. 1</t>
-  </si>
-  <si>
-    <t>sem. 2</t>
-  </si>
-  <si>
-    <t>sem. 3</t>
-  </si>
-  <si>
-    <t>sem. 5</t>
-  </si>
-  <si>
-    <t>sem. 6</t>
-  </si>
-  <si>
-    <t>sem. 9</t>
-  </si>
-  <si>
-    <t>sem. 10</t>
-  </si>
-  <si>
-    <t>sem. 11</t>
-  </si>
-  <si>
-    <t>sem. 12</t>
-  </si>
-  <si>
-    <t>sem.  4</t>
-  </si>
-  <si>
-    <t>sem. 7</t>
-  </si>
-  <si>
-    <t>sem. 8</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="49">
+  <si>
+    <t>Execução da entrega 9</t>
+  </si>
+  <si>
+    <t>Execução da entrega 8</t>
+  </si>
+  <si>
+    <t>Execução da entrega 7</t>
+  </si>
+  <si>
+    <t>Execução da entrega 6</t>
+  </si>
+  <si>
+    <t>Execução da entrega 5</t>
   </si>
   <si>
     <t>Documento de requisitos</t>
-  </si>
-  <si>
-    <t>sem. 13</t>
-  </si>
-  <si>
-    <t>sem. 14</t>
-  </si>
-  <si>
-    <t>sem. 16</t>
-  </si>
-  <si>
-    <t>sem 17</t>
-  </si>
-  <si>
-    <t>sem. 18</t>
-  </si>
-  <si>
-    <t>sem. 19</t>
-  </si>
-  <si>
-    <t>sem 20</t>
-  </si>
-  <si>
-    <t>sem. 21</t>
-  </si>
-  <si>
-    <t>sem. 22</t>
-  </si>
-  <si>
-    <t>sem. 23</t>
-  </si>
-  <si>
-    <t>sem. 24</t>
   </si>
   <si>
     <r>
@@ -121,57 +65,141 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>cnica financeira</t>
+      <t>cnicae  financeira</t>
     </r>
   </si>
   <si>
-    <r>
-      <t>Defini</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ção do </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>escopo do projecto</t>
-    </r>
-  </si>
-  <si>
-    <t>Elaboração o plano do projecto</t>
-  </si>
-  <si>
-    <t>Execução da entrega 5</t>
-  </si>
-  <si>
-    <t>Execução da entrega 6</t>
-  </si>
-  <si>
-    <t>Execução da entrega 7</t>
-  </si>
-  <si>
-    <t>Execução da entrega 8</t>
-  </si>
-  <si>
-    <t>Execução da entrega 9</t>
+    <t>Definição do escopo do projecto</t>
+  </si>
+  <si>
+    <t>sem. 24</t>
+  </si>
+  <si>
+    <t>sem. 23</t>
+  </si>
+  <si>
+    <t>sem. 22</t>
+  </si>
+  <si>
+    <t>sem. 21</t>
+  </si>
+  <si>
+    <t>sem 20</t>
+  </si>
+  <si>
+    <t>sem. 19</t>
+  </si>
+  <si>
+    <t>sem. 18</t>
+  </si>
+  <si>
+    <t>sem 17</t>
+  </si>
+  <si>
+    <t>sem. 16</t>
+  </si>
+  <si>
+    <t>sem. 14</t>
+  </si>
+  <si>
+    <t>sem. 13</t>
+  </si>
+  <si>
+    <t>sem. 12</t>
+  </si>
+  <si>
+    <t>sem. 11</t>
+  </si>
+  <si>
+    <t>sem. 10</t>
+  </si>
+  <si>
+    <t>sem. 9</t>
+  </si>
+  <si>
+    <t>sem. 8</t>
+  </si>
+  <si>
+    <t>sem. 7</t>
+  </si>
+  <si>
+    <t>sem. 6</t>
+  </si>
+  <si>
+    <t>sem. 5</t>
+  </si>
+  <si>
+    <t>sem.  4</t>
+  </si>
+  <si>
+    <t>sem. 3</t>
+  </si>
+  <si>
+    <t>sem. 2</t>
+  </si>
+  <si>
+    <t>sem. 1</t>
+  </si>
+  <si>
+    <t>Actividade</t>
+  </si>
+  <si>
+    <t>Status Report</t>
+  </si>
+  <si>
+    <t>Relatório encerramento</t>
+  </si>
+  <si>
+    <t>Entrega 9</t>
+  </si>
+  <si>
+    <t>Equipe qualificada</t>
+  </si>
+  <si>
+    <t>Entrega 8</t>
+  </si>
+  <si>
+    <t>Divulgação de eventos</t>
+  </si>
+  <si>
+    <t>Relatório da entrega anterior</t>
+  </si>
+  <si>
+    <t>Entrega 7</t>
+  </si>
+  <si>
+    <t>Gestão do aluno</t>
+  </si>
+  <si>
+    <t>Entrega 6</t>
+  </si>
+  <si>
+    <t>Cadastro de funcionários</t>
+  </si>
+  <si>
+    <t>Pagamento de mensalidades</t>
+  </si>
+  <si>
+    <t>Inscrição de alunos</t>
+  </si>
+  <si>
+    <t>Entrega 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Módulos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entregas </t>
+  </si>
+  <si>
+    <t>Elaboração do plano do projecto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +213,38 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -201,7 +254,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -218,21 +271,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.59999389629810485"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -250,35 +326,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:X25" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A3:X25"/>
-  <tableColumns count="24">
-    <tableColumn id="1" name="Actividade"/>
-    <tableColumn id="2" name="sem. 1"/>
-    <tableColumn id="3" name="sem. 2"/>
-    <tableColumn id="4" name="sem. 3"/>
-    <tableColumn id="5" name="sem.  4"/>
-    <tableColumn id="6" name="sem. 5"/>
-    <tableColumn id="7" name="sem. 6"/>
-    <tableColumn id="8" name="sem. 7"/>
-    <tableColumn id="9" name="sem. 8"/>
-    <tableColumn id="10" name="sem. 9"/>
-    <tableColumn id="11" name="sem. 10"/>
-    <tableColumn id="12" name="sem. 11"/>
-    <tableColumn id="13" name="sem. 12"/>
-    <tableColumn id="14" name="sem. 13"/>
-    <tableColumn id="15" name="sem. 14"/>
-    <tableColumn id="16" name="sem. 16"/>
-    <tableColumn id="17" name="sem 17"/>
-    <tableColumn id="18" name="sem. 18"/>
-    <tableColumn id="19" name="sem. 19"/>
-    <tableColumn id="20" name="sem 20"/>
-    <tableColumn id="21" name="sem. 21"/>
-    <tableColumn id="22" name="sem. 22"/>
-    <tableColumn id="23" name="sem. 23"/>
-    <tableColumn id="24" name="sem. 24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C8570F6-90C5-4DFF-B37B-792D745BA909}" name="Table1" displayName="Table1" ref="B17:C27" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B17:C27" xr:uid="{E73EF7A2-F2BF-49DC-9BA9-4B10D3DAA56C}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4B27BFB1-AF09-4623-AC1A-C9EB0233F300}" name="Entregas "/>
+    <tableColumn id="2" xr3:uid="{D485560A-F2B0-4C0F-B62C-65B98406C8AE}" name="Módulos "/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -299,7 +353,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -311,7 +365,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -358,6 +412,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -393,6 +464,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -544,208 +632,244 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:X18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855931B6-989E-4A68-B6DD-DEEEA430AC9A}">
+  <dimension ref="B4:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
-    <col min="2" max="9" width="11" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="12" hidden="1" customWidth="1"/>
-    <col min="14" max="16" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" s="2"/>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="T17" s="3"/>
-    </row>
-    <row r="18" spans="13:21" x14ac:dyDescent="0.25">
-      <c r="U18" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B17:C17">
+    <cfRule type="uniqueValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>